--- a/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
+++ b/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmd53\OneDrive\바탕 화면\AIML Project1\4~6주차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmd53\Documents\GitHub\Kalculator\프로젝트 기획 및 설계 자료\4~6주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F0E03-3F58-4F55-A3ED-E3333ACBA0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC38C4B-133A-4EE2-9269-974A21EBE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9E4507E-0CAA-427E-8764-07E9FCE69C8B}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>프로필 생성</t>
   </si>
   <si>
-    <t>사용자는 나이, 성별, 체중, 활동량, 이용목적, 식단 모드를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
-  </si>
-  <si>
     <t>식단 관리</t>
   </si>
   <si>
@@ -201,6 +198,10 @@
   </si>
   <si>
     <t>배틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 나이, 성별, 체중, 활동량, 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 비건식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,26 +419,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,15 +756,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6313C18-6597-49B6-94F3-DA3BE249037F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="3" max="3" width="25.796875" customWidth="1"/>
-    <col min="4" max="4" width="125.19921875" customWidth="1"/>
+    <col min="4" max="4" width="151.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -785,7 +786,7 @@
         <f t="shared" ref="A2:A22" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -800,7 +801,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
@@ -813,7 +814,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
@@ -826,7 +827,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -841,7 +842,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
@@ -854,7 +855,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
@@ -867,7 +868,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
@@ -880,14 +881,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -895,14 +896,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -910,12 +911,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -923,12 +924,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -936,14 +937,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -951,12 +952,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -964,14 +965,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>28</v>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -979,12 +980,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -992,12 +993,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1005,14 +1006,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>51</v>
+      <c r="B18" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1020,12 +1021,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1033,14 +1034,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>52</v>
+      <c r="B20" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1048,12 +1049,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1061,12 +1062,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
+++ b/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmd53\Documents\GitHub\Kalculator\프로젝트 기획 및 설계 자료\4~6주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC38C4B-133A-4EE2-9269-974A21EBE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583A327-1E05-40A8-8160-9B8894013DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9E4507E-0CAA-427E-8764-07E9FCE69C8B}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>소셜 로그인</t>
   </si>
   <si>
-    <t>사용자는 아이디, 비밀번호, 비밀번호 확인, 닉네임, 생년월일을 입력하여 회원가입할 수 있습니다.</t>
-  </si>
-  <si>
     <t>네이버, 카카오톡, 구글 계정을 통해 회원가입을 진행할 수 있습니다.</t>
   </si>
   <si>
@@ -201,7 +198,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자는 나이, 성별, 체중, 활동량, 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 비건식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
+    <t>사용자는 아이디, 비밀번호, 비밀번호 확인, 생년월일을 입력하여 회원가입할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 닉네임,나이, 성별, 체중, 활동량, 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 비건식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,14 +758,14 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="3" max="3" width="25.796875" customWidth="1"/>
-    <col min="4" max="4" width="151.5" customWidth="1"/>
+    <col min="4" max="4" width="168.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -793,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -806,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -816,10 +817,10 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -831,10 +832,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -844,10 +845,10 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -857,10 +858,10 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -870,10 +871,10 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -882,10 +883,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>52</v>
@@ -897,13 +898,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -913,10 +914,10 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -926,10 +927,10 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -938,13 +939,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -954,10 +955,10 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -966,13 +967,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -982,10 +983,10 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -995,10 +996,10 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1007,13 +1008,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1023,10 +1024,10 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1035,13 +1036,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1051,10 +1052,10 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1064,10 +1065,10 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
+++ b/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmd53\Documents\GitHub\Kalculator\프로젝트 기획 및 설계 자료\4~6주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583A327-1E05-40A8-8160-9B8894013DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994E9A1E-CE46-4B5B-8D1C-13C725219CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9E4507E-0CAA-427E-8764-07E9FCE69C8B}"/>
   </bookViews>
@@ -198,11 +198,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자는 아이디, 비밀번호, 비밀번호 확인, 생년월일을 입력하여 회원가입할 수 있습니다.</t>
+    <t>사용자는 아이디, 비밀번호, 비밀번호 확인,닉네임,생년월일을 입력하여 회원가입할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자는 닉네임,나이, 성별, 체중, 활동량, 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 비건식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
+    <t>사용자는 나이, 성별, 체중, 활동량, 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 비건식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +758,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
+++ b/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmd53\Documents\GitHub\Kalculator\프로젝트 기획 및 설계 자료\4~6주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994E9A1E-CE46-4B5B-8D1C-13C725219CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0DBA40-8125-4A47-8EAD-3DB58E740D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9E4507E-0CAA-427E-8764-07E9FCE69C8B}"/>
   </bookViews>
@@ -202,7 +202,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자는 나이, 성별, 체중, 활동량, 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 비건식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
+    <t>사용자는 나이, 성별, 체중, 활동량(활동 적음, 일반적, 활동 많음), 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 키토식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +765,7 @@
   <cols>
     <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="3" max="3" width="25.796875" customWidth="1"/>
-    <col min="4" max="4" width="168.8984375" customWidth="1"/>
+    <col min="4" max="4" width="195.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">

--- a/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
+++ b/프로젝트 기획 및 설계 자료/4~6주차/사용자 요구사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmd53\Documents\GitHub\Kalculator\프로젝트 기획 및 설계 자료\4~6주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0DBA40-8125-4A47-8EAD-3DB58E740D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB709A-A892-4401-B7B5-D9DA45E43D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9E4507E-0CAA-427E-8764-07E9FCE69C8B}"/>
   </bookViews>
@@ -202,7 +202,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자는 나이, 성별, 체중, 활동량(활동 적음, 일반적, 활동 많음), 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 키토식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
+    <t>사용자는 나이, 성별, 체중,키,활동량(활동 적음, 일반적, 활동 많음), 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 키토식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
